--- a/data/output/FV2304_FV2210/UTILMD/11060.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11060.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15156" uniqueCount="816">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15177" uniqueCount="816">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2627,6 +2627,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U693" totalsRowShown="0">
+  <autoFilter ref="A1:U693"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2916,7 +2946,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U693"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -34958,5 +34991,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11060.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11060.xlsx
@@ -5116,7 +5116,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -7206,7 +7206,7 @@
         <v>737</v>
       </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -7358,7 +7358,7 @@
         <v>738</v>
       </c>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -7922,7 +7922,7 @@
         <v>740</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -8120,7 +8120,7 @@
         <v>743</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -8378,7 +8378,7 @@
         <v>744</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -8580,7 +8580,7 @@
         <v>744</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -9030,7 +9030,7 @@
         <v>746</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -9318,7 +9318,7 @@
         <v>747</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -9676,7 +9676,7 @@
         <v>750</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -10300,7 +10300,7 @@
         <v>752</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -10598,7 +10598,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -11242,7 +11242,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -11528,7 +11528,7 @@
         <v>740</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -11964,7 +11964,7 @@
         <v>754</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -12170,7 +12170,7 @@
         <v>755</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -12620,7 +12620,7 @@
         <v>756</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -12758,7 +12758,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -13112,7 +13112,7 @@
         <v>758</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -13360,7 +13360,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -13860,7 +13860,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -14362,7 +14362,7 @@
         <v>761</v>
       </c>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -14628,22 +14628,22 @@
       <c r="V195" s="5"/>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5" t="s">
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2" t="s">
         <v>667</v>
       </c>
       <c r="K196" s="6" t="s">
@@ -14652,19 +14652,19 @@
       <c r="L196" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="M196" s="5" t="s">
+      <c r="M196" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N196" s="5" t="s">
+      <c r="N196" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O196" s="5"/>
-      <c r="P196" s="5"/>
-      <c r="Q196" s="5"/>
-      <c r="R196" s="5"/>
-      <c r="S196" s="5"/>
-      <c r="T196" s="5"/>
-      <c r="U196" s="5" t="s">
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2" t="s">
         <v>667</v>
       </c>
       <c r="V196" s="6" t="s">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -15144,7 +15144,7 @@
         <v>764</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -15540,7 +15540,7 @@
         <v>765</v>
       </c>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -15790,7 +15790,7 @@
         <v>767</v>
       </c>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -16476,7 +16476,7 @@
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -16612,7 +16612,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -16978,7 +16978,7 @@
         <v>768</v>
       </c>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -17116,7 +17116,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -17266,7 +17266,7 @@
         <v>769</v>
       </c>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -17554,7 +17554,7 @@
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -17704,7 +17704,7 @@
         <v>770</v>
       </c>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -18084,7 +18084,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -18228,7 +18228,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -18472,7 +18472,7 @@
         <v>772</v>
       </c>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -18610,7 +18610,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -18760,7 +18760,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -18962,7 +18962,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="4"/>
-      <c r="M284" s="2" t="s">
+      <c r="M284" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N284" s="2" t="s">
@@ -19098,7 +19098,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -19246,7 +19246,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -19382,7 +19382,7 @@
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="K296" s="2"/>
       <c r="L296" s="4"/>
-      <c r="M296" s="2" t="s">
+      <c r="M296" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N296" s="2" t="s">
@@ -19666,7 +19666,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -19816,7 +19816,7 @@
         <v>774</v>
       </c>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -19954,7 +19954,7 @@
       </c>
       <c r="K305" s="2"/>
       <c r="L305" s="4"/>
-      <c r="M305" s="2" t="s">
+      <c r="M305" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N305" s="2" t="s">
@@ -20106,7 +20106,7 @@
         <v>740</v>
       </c>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -20258,7 +20258,7 @@
         <v>740</v>
       </c>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="K314" s="2"/>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -20650,7 +20650,7 @@
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -20796,7 +20796,7 @@
         <v>740</v>
       </c>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -21192,7 +21192,7 @@
         <v>744</v>
       </c>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -21480,7 +21480,7 @@
         <v>740</v>
       </c>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -21730,7 +21730,7 @@
         <v>776</v>
       </c>
       <c r="L341" s="4"/>
-      <c r="M341" s="2" t="s">
+      <c r="M341" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N341" s="2" t="s">
@@ -21868,7 +21868,7 @@
       </c>
       <c r="K344" s="2"/>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -22020,7 +22020,7 @@
         <v>777</v>
       </c>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -22172,7 +22172,7 @@
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N350" s="2" t="s">
@@ -22376,7 +22376,7 @@
       </c>
       <c r="K354" s="2"/>
       <c r="L354" s="4"/>
-      <c r="M354" s="2" t="s">
+      <c r="M354" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N354" s="2" t="s">
@@ -22512,7 +22512,7 @@
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -22716,7 +22716,7 @@
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -22920,7 +22920,7 @@
         <v>779</v>
       </c>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -23170,7 +23170,7 @@
         <v>780</v>
       </c>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -23308,7 +23308,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -23460,7 +23460,7 @@
         <v>781</v>
       </c>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -23606,7 +23606,7 @@
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="4"/>
-      <c r="M379" s="2" t="s">
+      <c r="M379" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N379" s="2" t="s">
@@ -24770,7 +24770,7 @@
         <v>744</v>
       </c>
       <c r="L401" s="4"/>
-      <c r="M401" s="2" t="s">
+      <c r="M401" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N401" s="2" t="s">
@@ -25948,7 +25948,7 @@
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="4"/>
-      <c r="M423" s="2" t="s">
+      <c r="M423" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N423" s="2" t="s">
@@ -26096,7 +26096,7 @@
         <v>784</v>
       </c>
       <c r="L426" s="4"/>
-      <c r="M426" s="2" t="s">
+      <c r="M426" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N426" s="2" t="s">
@@ -26304,7 +26304,7 @@
         <v>740</v>
       </c>
       <c r="L430" s="4"/>
-      <c r="M430" s="2" t="s">
+      <c r="M430" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N430" s="2" t="s">
@@ -26458,7 +26458,7 @@
         <v>740</v>
       </c>
       <c r="L433" s="4"/>
-      <c r="M433" s="2" t="s">
+      <c r="M433" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N433" s="2" t="s">
@@ -26666,7 +26666,7 @@
         <v>785</v>
       </c>
       <c r="L437" s="4"/>
-      <c r="M437" s="2" t="s">
+      <c r="M437" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N437" s="2" t="s">
@@ -26816,7 +26816,7 @@
       </c>
       <c r="K440" s="2"/>
       <c r="L440" s="4"/>
-      <c r="M440" s="2" t="s">
+      <c r="M440" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N440" s="2" t="s">
@@ -27264,7 +27264,7 @@
         <v>786</v>
       </c>
       <c r="L449" s="4"/>
-      <c r="M449" s="2" t="s">
+      <c r="M449" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N449" s="2" t="s">
@@ -27552,7 +27552,7 @@
         <v>787</v>
       </c>
       <c r="L455" s="4"/>
-      <c r="M455" s="2" t="s">
+      <c r="M455" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N455" s="2" t="s">
@@ -27690,7 +27690,7 @@
       </c>
       <c r="K458" s="2"/>
       <c r="L458" s="4"/>
-      <c r="M458" s="2" t="s">
+      <c r="M458" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N458" s="2" t="s">
@@ -27838,7 +27838,7 @@
       </c>
       <c r="K461" s="2"/>
       <c r="L461" s="4"/>
-      <c r="M461" s="2" t="s">
+      <c r="M461" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N461" s="2" t="s">
@@ -27974,7 +27974,7 @@
       </c>
       <c r="K464" s="2"/>
       <c r="L464" s="4"/>
-      <c r="M464" s="2" t="s">
+      <c r="M464" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N464" s="2" t="s">
@@ -28122,7 +28122,7 @@
         <v>785</v>
       </c>
       <c r="L467" s="4"/>
-      <c r="M467" s="2" t="s">
+      <c r="M467" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N467" s="2" t="s">
@@ -28274,7 +28274,7 @@
         <v>787</v>
       </c>
       <c r="L470" s="4"/>
-      <c r="M470" s="2" t="s">
+      <c r="M470" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N470" s="2" t="s">
@@ -28412,7 +28412,7 @@
       </c>
       <c r="K473" s="2"/>
       <c r="L473" s="4"/>
-      <c r="M473" s="2" t="s">
+      <c r="M473" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N473" s="2" t="s">
@@ -28556,7 +28556,7 @@
       </c>
       <c r="K476" s="2"/>
       <c r="L476" s="4"/>
-      <c r="M476" s="2" t="s">
+      <c r="M476" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N476" s="2" t="s">
@@ -28692,7 +28692,7 @@
       </c>
       <c r="K479" s="2"/>
       <c r="L479" s="4"/>
-      <c r="M479" s="2" t="s">
+      <c r="M479" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N479" s="2" t="s">
@@ -28838,7 +28838,7 @@
       </c>
       <c r="K482" s="2"/>
       <c r="L482" s="4"/>
-      <c r="M482" s="2" t="s">
+      <c r="M482" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N482" s="2" t="s">
@@ -29044,7 +29044,7 @@
         <v>788</v>
       </c>
       <c r="L486" s="4"/>
-      <c r="M486" s="2" t="s">
+      <c r="M486" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N486" s="2" t="s">
@@ -29250,7 +29250,7 @@
         <v>789</v>
       </c>
       <c r="L490" s="4"/>
-      <c r="M490" s="2" t="s">
+      <c r="M490" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N490" s="2" t="s">
@@ -29366,24 +29366,24 @@
       <c r="V492" s="5"/>
     </row>
     <row r="493" spans="1:22">
-      <c r="A493" s="5" t="s">
+      <c r="A493" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="B493" s="5" t="s">
+      <c r="B493" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C493" s="5" t="s">
+      <c r="C493" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D493" s="5" t="s">
+      <c r="D493" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E493" s="5"/>
-      <c r="F493" s="5"/>
-      <c r="G493" s="5"/>
-      <c r="H493" s="5"/>
-      <c r="I493" s="5"/>
-      <c r="J493" s="5" t="s">
+      <c r="E493" s="2"/>
+      <c r="F493" s="2"/>
+      <c r="G493" s="2"/>
+      <c r="H493" s="2"/>
+      <c r="I493" s="2"/>
+      <c r="J493" s="2" t="s">
         <v>710</v>
       </c>
       <c r="K493" s="6" t="s">
@@ -29392,21 +29392,21 @@
       <c r="L493" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="M493" s="5" t="s">
+      <c r="M493" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N493" s="5" t="s">
+      <c r="N493" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O493" s="5" t="s">
+      <c r="O493" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P493" s="5"/>
-      <c r="Q493" s="5"/>
-      <c r="R493" s="5"/>
-      <c r="S493" s="5"/>
-      <c r="T493" s="5"/>
-      <c r="U493" s="5" t="s">
+      <c r="P493" s="2"/>
+      <c r="Q493" s="2"/>
+      <c r="R493" s="2"/>
+      <c r="S493" s="2"/>
+      <c r="T493" s="2"/>
+      <c r="U493" s="2" t="s">
         <v>710</v>
       </c>
       <c r="V493" s="6" t="s">
@@ -29652,7 +29652,7 @@
       </c>
       <c r="K498" s="2"/>
       <c r="L498" s="4"/>
-      <c r="M498" s="2" t="s">
+      <c r="M498" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N498" s="2" t="s">
@@ -29804,7 +29804,7 @@
         <v>792</v>
       </c>
       <c r="L501" s="4"/>
-      <c r="M501" s="2" t="s">
+      <c r="M501" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N501" s="2" t="s">
@@ -29958,7 +29958,7 @@
         <v>792</v>
       </c>
       <c r="L504" s="4"/>
-      <c r="M504" s="2" t="s">
+      <c r="M504" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N504" s="2" t="s">
@@ -30106,7 +30106,7 @@
       </c>
       <c r="K507" s="2"/>
       <c r="L507" s="4"/>
-      <c r="M507" s="2" t="s">
+      <c r="M507" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N507" s="2" t="s">
@@ -30310,7 +30310,7 @@
         <v>794</v>
       </c>
       <c r="L511" s="4"/>
-      <c r="M511" s="2" t="s">
+      <c r="M511" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N511" s="2" t="s">
@@ -30706,7 +30706,7 @@
         <v>795</v>
       </c>
       <c r="L519" s="4"/>
-      <c r="M519" s="2" t="s">
+      <c r="M519" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N519" s="2" t="s">
@@ -31040,7 +31040,7 @@
         <v>796</v>
       </c>
       <c r="L526" s="4"/>
-      <c r="M526" s="2" t="s">
+      <c r="M526" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N526" s="2" t="s">
@@ -31228,7 +31228,7 @@
         <v>797</v>
       </c>
       <c r="L530" s="4"/>
-      <c r="M530" s="2" t="s">
+      <c r="M530" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N530" s="2" t="s">
@@ -31474,7 +31474,7 @@
         <v>798</v>
       </c>
       <c r="L535" s="4"/>
-      <c r="M535" s="2" t="s">
+      <c r="M535" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N535" s="2" t="s">
@@ -31612,7 +31612,7 @@
       </c>
       <c r="K538" s="2"/>
       <c r="L538" s="4"/>
-      <c r="M538" s="2" t="s">
+      <c r="M538" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N538" s="2" t="s">
@@ -31756,7 +31756,7 @@
       </c>
       <c r="K541" s="2"/>
       <c r="L541" s="4"/>
-      <c r="M541" s="2" t="s">
+      <c r="M541" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N541" s="2" t="s">
@@ -31894,7 +31894,7 @@
         <v>799</v>
       </c>
       <c r="L544" s="4"/>
-      <c r="M544" s="2" t="s">
+      <c r="M544" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N544" s="2" t="s">
@@ -32042,7 +32042,7 @@
       </c>
       <c r="K547" s="2"/>
       <c r="L547" s="4"/>
-      <c r="M547" s="2" t="s">
+      <c r="M547" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N547" s="2" t="s">
@@ -32354,7 +32354,7 @@
         <v>801</v>
       </c>
       <c r="L553" s="4"/>
-      <c r="M553" s="2" t="s">
+      <c r="M553" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N553" s="2" t="s">
@@ -32492,7 +32492,7 @@
       </c>
       <c r="K556" s="2"/>
       <c r="L556" s="4"/>
-      <c r="M556" s="2" t="s">
+      <c r="M556" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N556" s="2" t="s">
@@ -32636,7 +32636,7 @@
       </c>
       <c r="K559" s="2"/>
       <c r="L559" s="4"/>
-      <c r="M559" s="2" t="s">
+      <c r="M559" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N559" s="2" t="s">
@@ -32772,7 +32772,7 @@
       </c>
       <c r="K562" s="2"/>
       <c r="L562" s="4"/>
-      <c r="M562" s="2" t="s">
+      <c r="M562" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N562" s="2" t="s">
@@ -32918,7 +32918,7 @@
       </c>
       <c r="K565" s="2"/>
       <c r="L565" s="4"/>
-      <c r="M565" s="2" t="s">
+      <c r="M565" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N565" s="2" t="s">
@@ -33284,7 +33284,7 @@
         <v>802</v>
       </c>
       <c r="L572" s="4"/>
-      <c r="M572" s="2" t="s">
+      <c r="M572" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N572" s="2" t="s">
@@ -33422,7 +33422,7 @@
       </c>
       <c r="K575" s="2"/>
       <c r="L575" s="4"/>
-      <c r="M575" s="2" t="s">
+      <c r="M575" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N575" s="2" t="s">
@@ -33566,7 +33566,7 @@
       </c>
       <c r="K578" s="2"/>
       <c r="L578" s="4"/>
-      <c r="M578" s="2" t="s">
+      <c r="M578" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N578" s="2" t="s">
@@ -33702,7 +33702,7 @@
       </c>
       <c r="K581" s="2"/>
       <c r="L581" s="4"/>
-      <c r="M581" s="2" t="s">
+      <c r="M581" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N581" s="2" t="s">
@@ -33848,7 +33848,7 @@
       </c>
       <c r="K584" s="2"/>
       <c r="L584" s="4"/>
-      <c r="M584" s="2" t="s">
+      <c r="M584" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N584" s="2" t="s">
@@ -33998,7 +33998,7 @@
         <v>802</v>
       </c>
       <c r="L587" s="4"/>
-      <c r="M587" s="2" t="s">
+      <c r="M587" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N587" s="2" t="s">
@@ -34270,7 +34270,7 @@
       </c>
       <c r="K593" s="2"/>
       <c r="L593" s="4"/>
-      <c r="M593" s="2" t="s">
+      <c r="M593" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N593" s="2" t="s">
@@ -34420,7 +34420,7 @@
         <v>804</v>
       </c>
       <c r="L596" s="4"/>
-      <c r="M596" s="2" t="s">
+      <c r="M596" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N596" s="2" t="s">
@@ -34558,7 +34558,7 @@
       </c>
       <c r="K599" s="2"/>
       <c r="L599" s="4"/>
-      <c r="M599" s="2" t="s">
+      <c r="M599" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N599" s="2" t="s">
@@ -34704,7 +34704,7 @@
       </c>
       <c r="K602" s="2"/>
       <c r="L602" s="4"/>
-      <c r="M602" s="2" t="s">
+      <c r="M602" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N602" s="2" t="s">
@@ -34852,7 +34852,7 @@
       </c>
       <c r="K605" s="2"/>
       <c r="L605" s="4"/>
-      <c r="M605" s="2" t="s">
+      <c r="M605" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N605" s="2" t="s">
@@ -34988,7 +34988,7 @@
       </c>
       <c r="K608" s="2"/>
       <c r="L608" s="4"/>
-      <c r="M608" s="2" t="s">
+      <c r="M608" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N608" s="2" t="s">
@@ -35138,7 +35138,7 @@
         <v>805</v>
       </c>
       <c r="L611" s="4"/>
-      <c r="M611" s="2" t="s">
+      <c r="M611" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N611" s="2" t="s">
@@ -35276,7 +35276,7 @@
       </c>
       <c r="K614" s="2"/>
       <c r="L614" s="4"/>
-      <c r="M614" s="2" t="s">
+      <c r="M614" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N614" s="2" t="s">
@@ -35424,7 +35424,7 @@
       </c>
       <c r="K617" s="2"/>
       <c r="L617" s="4"/>
-      <c r="M617" s="2" t="s">
+      <c r="M617" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N617" s="2" t="s">
@@ -35814,7 +35814,7 @@
         <v>806</v>
       </c>
       <c r="L625" s="4"/>
-      <c r="M625" s="2" t="s">
+      <c r="M625" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N625" s="2" t="s">
@@ -35952,7 +35952,7 @@
       </c>
       <c r="K628" s="2"/>
       <c r="L628" s="4"/>
-      <c r="M628" s="2" t="s">
+      <c r="M628" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N628" s="2" t="s">
@@ -36100,7 +36100,7 @@
       </c>
       <c r="K631" s="2"/>
       <c r="L631" s="4"/>
-      <c r="M631" s="2" t="s">
+      <c r="M631" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N631" s="2" t="s">
@@ -36488,7 +36488,7 @@
       </c>
       <c r="K639" s="2"/>
       <c r="L639" s="4"/>
-      <c r="M639" s="2" t="s">
+      <c r="M639" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N639" s="2" t="s">
@@ -36890,7 +36890,7 @@
         <v>808</v>
       </c>
       <c r="L647" s="4"/>
-      <c r="M647" s="2" t="s">
+      <c r="M647" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N647" s="2" t="s">
@@ -37028,7 +37028,7 @@
       </c>
       <c r="K650" s="2"/>
       <c r="L650" s="4"/>
-      <c r="M650" s="2" t="s">
+      <c r="M650" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N650" s="2" t="s">
@@ -37176,7 +37176,7 @@
       </c>
       <c r="K653" s="2"/>
       <c r="L653" s="4"/>
-      <c r="M653" s="2" t="s">
+      <c r="M653" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N653" s="2" t="s">
@@ -37404,7 +37404,7 @@
         <v>809</v>
       </c>
       <c r="L658" s="4"/>
-      <c r="M658" s="2" t="s">
+      <c r="M658" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N658" s="2" t="s">
@@ -37700,7 +37700,7 @@
       </c>
       <c r="K664" s="2"/>
       <c r="L664" s="4"/>
-      <c r="M664" s="2" t="s">
+      <c r="M664" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N664" s="2" t="s">
@@ -37850,7 +37850,7 @@
         <v>809</v>
       </c>
       <c r="L667" s="4"/>
-      <c r="M667" s="2" t="s">
+      <c r="M667" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N667" s="2" t="s">
@@ -38350,7 +38350,7 @@
       </c>
       <c r="K677" s="2"/>
       <c r="L677" s="4"/>
-      <c r="M677" s="2" t="s">
+      <c r="M677" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N677" s="2" t="s">
@@ -38500,7 +38500,7 @@
         <v>811</v>
       </c>
       <c r="L680" s="4"/>
-      <c r="M680" s="2" t="s">
+      <c r="M680" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N680" s="2" t="s">
@@ -38892,7 +38892,7 @@
       </c>
       <c r="K688" s="2"/>
       <c r="L688" s="4"/>
-      <c r="M688" s="2" t="s">
+      <c r="M688" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N688" s="2" t="s">
@@ -39040,7 +39040,7 @@
       </c>
       <c r="K691" s="2"/>
       <c r="L691" s="4"/>
-      <c r="M691" s="2" t="s">
+      <c r="M691" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N691" s="2"/>
